--- a/wwwroot/reports/PaperTaskMachine2.xlsx
+++ b/wwwroot/reports/PaperTaskMachine2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>ใบแจ้งงาน MACHINE</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>DataField:Remark2</t>
+  </si>
+  <si>
+    <t>DataField:Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -408,11 +414,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -487,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1669,8 +1687,12 @@
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="J27" s="37"/>
       <c r="K27" s="4"/>
     </row>
@@ -1789,7 +1811,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"AngsanaUPC,Regular"Form VWI 08.47.01 Version 0</oddFooter>
   </headerFooter>
